--- a/artfynd/A 31411-2025 artfynd.xlsx
+++ b/artfynd/A 31411-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131007389</v>
       </c>
       <c r="B2" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>131007388</v>
       </c>
       <c r="B3" t="n">
-        <v>99009</v>
+        <v>99013</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>131007391</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>131007386</v>
       </c>
       <c r="B5" t="n">
-        <v>79263</v>
+        <v>79267</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/artfynd/A 31411-2025 artfynd.xlsx
+++ b/artfynd/A 31411-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131007389</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>131007388</v>
       </c>
       <c r="B3" t="n">
-        <v>99013</v>
+        <v>99014</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>131007391</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>131007386</v>
       </c>
       <c r="B5" t="n">
-        <v>79267</v>
+        <v>79268</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
